--- a/medicine/Pharmacie/Guerbet/Guerbet.xlsx
+++ b/medicine/Pharmacie/Guerbet/Guerbet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guerbet est une entreprise pharmaceutique française créée en 1926. Elle est cotée à la bourse de Paris.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe pharmaceutique français, implanté dans plus de 80 pays à travers un réseau de filiales et d'agents, est spécialisé dans l’imagerie médicale. Sa gamme comprend des produits de contraste pour l’imagerie Rayons X, pour l’IRM et pour la radiologie interventionnelle, ainsi qu’une gamme d’injecteurs et de dispositifs médicaux associés, pour améliorer le pronostic et la qualité de vie des patients dans les pathologies cardiovasculaires, les cancers, les maladies neurologiques. 
 Le 27 novembre 2015, Guerbet a annoncé l’acquisition définitive de l’activité « produits de contraste et systèmes d’injection » de Mallinckrodt (CMDS), doublant sa taille pour se positionner parmi les leaders de l'imagerie médicale mondiale.
@@ -545,12 +559,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1901, Marcel Guerbet, docteur en Pharmacie, s’associe avec Laurent Lafay, qu’il a connu comme chef de travaux à l’École de Pharmacie : ils mettent au point et vendent le Lipiodol-Lafay, une huile iodée qui traite de nombreuses affections comme l’asthme ou le lymphatisme. En 1928, les professeurs Sicard et Forestier publient la synthèse de leurs travaux sur Lipiodol : en découvrant son pouvoir opacifiant, ils font entrer Lipiodol, pionnier des produits de contraste, dans l’histoire de la radiologie.
 Dès lors, Guerbet se spécialise, pour offrir aux radiologues et aux cardiologues, une gamme complète de produits de contraste innovants et efficaces : Lipiodol en bronchographie et en hystérographie ; Vasurix en angiographie, beaucoup mieux toléré que ses prédécesseurs ; Orabilix en cholécystographie, qui développe la notoriété de Guerbet à l'international.
 Après la guerre, Guerbet maintient son effort de recherche. Le département R&amp;D se structure et élabore des molécules pour faciliter la détection des pathologies et assurer de meilleures conditions de soin pour le patient.
-Fin octobre 2019, le groupe annonce une croissance en hausse de 3,8 % par rapport à l'année précédente à la même époque[2]. De janvier à septembre 2019, Guerbet a dégagé 603,5 millions d'euros de chiffre d'affaires[3],[4].
+Fin octobre 2019, le groupe annonce une croissance en hausse de 3,8 % par rapport à l'année précédente à la même époque. De janvier à septembre 2019, Guerbet a dégagé 603,5 millions d'euros de chiffre d'affaires,.
 </t>
         </is>
       </c>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,9 +623,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste au 16 avril 2019[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste au 16 avril 2019.
 </t>
         </is>
       </c>
